--- a/biology/Zoologie/Clupeidae/Clupeidae.xlsx
+++ b/biology/Zoologie/Clupeidae/Clupeidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Clupéidés (Clupeidae) sont une famille de poissons marins de l'ordre des Clupeiformes. Elle comprend certains des poissons les plus consommés dans le monde.
 </t>
@@ -511,10 +523,12 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Un certain nombre de genres autrefois admis dans la famille sont actuellement placés dans d'autres familles : les Alosidae, Dorosomatidae et Ehiravidae.
-Selon World Register of Marine Species                               (18 novembre 2023)[1] :
+Selon World Register of Marine Species                               (18 novembre 2023) :
 genre Clupea Linnaeus, 1758
 genre Ethmidium Thompson, 1916
 genre Hyperlophus Ogilby, 1892
@@ -523,10 +537,10 @@
 genre Ramnogaster Whitehead, 1965
 genre Sprattus Girgensohn, 1846
 genre Strangomera Whitehead, 1965
-Selon Paleobiology Database                   (13 mars 2019)[2] :
-genre † Bolcaichthys Marramà et Carnevale[3], 2015
-genre † Trollichthys Marramà et Carnevale[4], 2015
-genre † Eoalosa Marramà et Carnevale[5], 2018.
+Selon Paleobiology Database                   (13 mars 2019) :
+genre † Bolcaichthys Marramà et Carnevale, 2015
+genre † Trollichthys Marramà et Carnevale, 2015
+genre † Eoalosa Marramà et Carnevale, 2018.
 			Clupea harengus
 			Ethmidium maculatum
 			Hyperlophus vittatus
